--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.359913</v>
+        <v>10.98004</v>
       </c>
       <c r="H2">
-        <v>31.079739</v>
+        <v>32.94012</v>
       </c>
       <c r="I2">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="J2">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N2">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O2">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P2">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q2">
-        <v>325.7783767266933</v>
+        <v>482.8964678792667</v>
       </c>
       <c r="R2">
-        <v>2932.00539054024</v>
+        <v>4346.0682109134</v>
       </c>
       <c r="S2">
-        <v>0.0682986142405652</v>
+        <v>0.07876535021521533</v>
       </c>
       <c r="T2">
-        <v>0.06829861424056519</v>
+        <v>0.07876535021521533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.359913</v>
+        <v>10.98004</v>
       </c>
       <c r="H3">
-        <v>31.079739</v>
+        <v>32.94012</v>
       </c>
       <c r="I3">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="J3">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
         <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P3">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q3">
-        <v>598.8096051976244</v>
+        <v>634.6533428856133</v>
       </c>
       <c r="R3">
-        <v>5389.286446778618</v>
+        <v>5711.88008597052</v>
       </c>
       <c r="S3">
-        <v>0.1255389220115377</v>
+        <v>0.1035184478303962</v>
       </c>
       <c r="T3">
-        <v>0.1255389220115377</v>
+        <v>0.1035184478303962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.359913</v>
+        <v>10.98004</v>
       </c>
       <c r="H4">
-        <v>31.079739</v>
+        <v>32.94012</v>
       </c>
       <c r="I4">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="J4">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N4">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q4">
-        <v>143.0769736214507</v>
+        <v>229.8012754600667</v>
       </c>
       <c r="R4">
-        <v>1287.692762593056</v>
+        <v>2068.2114791406</v>
       </c>
       <c r="S4">
-        <v>0.02999572631635099</v>
+        <v>0.03748293712109065</v>
       </c>
       <c r="T4">
-        <v>0.02999572631635099</v>
+        <v>0.03748293712109064</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.359913</v>
+        <v>10.98004</v>
       </c>
       <c r="H5">
-        <v>31.079739</v>
+        <v>32.94012</v>
       </c>
       <c r="I5">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="J5">
-        <v>0.2499874361758538</v>
+        <v>0.241557773567032</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N5">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O5">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P5">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q5">
-        <v>124.7531054207867</v>
+        <v>133.59701247044</v>
       </c>
       <c r="R5">
-        <v>1122.77794878708</v>
+        <v>1202.37311223396</v>
       </c>
       <c r="S5">
-        <v>0.02615417360739992</v>
+        <v>0.02179103840032974</v>
       </c>
       <c r="T5">
-        <v>0.02615417360739992</v>
+        <v>0.02179103840032974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.57325899999999</v>
       </c>
       <c r="I6">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="J6">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N6">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O6">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P6">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q6">
-        <v>404.3255865848266</v>
+        <v>565.4773123380281</v>
       </c>
       <c r="R6">
-        <v>3638.930279263439</v>
+        <v>5089.295811042254</v>
       </c>
       <c r="S6">
-        <v>0.08476583849183578</v>
+        <v>0.09223513011115946</v>
       </c>
       <c r="T6">
-        <v>0.08476583849183576</v>
+        <v>0.09223513011115946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.57325899999999</v>
       </c>
       <c r="I7">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="J7">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
         <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P7">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q7">
-        <v>743.1863566478376</v>
+        <v>743.1863566478374</v>
       </c>
       <c r="R7">
-        <v>6688.677209830538</v>
+        <v>6688.677209830537</v>
       </c>
       <c r="S7">
-        <v>0.1558071434683491</v>
+        <v>0.1212212918301409</v>
       </c>
       <c r="T7">
-        <v>0.155807143468349</v>
+        <v>0.1212212918301409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>38.57325899999999</v>
       </c>
       <c r="I8">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="J8">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N8">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q8">
-        <v>177.5737293172373</v>
+        <v>269.0999339665883</v>
       </c>
       <c r="R8">
-        <v>1598.163563855136</v>
+        <v>2421.899405699295</v>
       </c>
       <c r="S8">
-        <v>0.03722788405957085</v>
+        <v>0.04389295004549296</v>
       </c>
       <c r="T8">
-        <v>0.03722788405957085</v>
+        <v>0.04389295004549295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>38.57325899999999</v>
       </c>
       <c r="I9">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="J9">
-        <v>0.3102609749186496</v>
+        <v>0.2828669283313016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N9">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O9">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P9">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q9">
-        <v>154.8318615690533</v>
+        <v>156.443636624533</v>
       </c>
       <c r="R9">
-        <v>1393.48675412148</v>
+        <v>1407.992729620797</v>
       </c>
       <c r="S9">
-        <v>0.03246010889889395</v>
+        <v>0.0255175563445083</v>
       </c>
       <c r="T9">
-        <v>0.03246010889889395</v>
+        <v>0.0255175563445083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.518638999999999</v>
+        <v>5.937871</v>
       </c>
       <c r="H10">
-        <v>13.555917</v>
+        <v>17.813613</v>
       </c>
       <c r="I10">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="J10">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N10">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O10">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P10">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q10">
-        <v>142.09336298808</v>
+        <v>261.1444887835317</v>
       </c>
       <c r="R10">
-        <v>1278.84026689272</v>
+        <v>2350.300399051785</v>
       </c>
       <c r="S10">
-        <v>0.02978951483022814</v>
+        <v>0.04259533561332844</v>
       </c>
       <c r="T10">
-        <v>0.02978951483022813</v>
+        <v>0.04259533561332844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.518638999999999</v>
+        <v>5.937871</v>
       </c>
       <c r="H11">
-        <v>13.555917</v>
+        <v>17.813613</v>
       </c>
       <c r="I11">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="J11">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N11">
         <v>173.401921</v>
       </c>
       <c r="O11">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P11">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q11">
-        <v>261.180227635173</v>
+        <v>343.2127460167303</v>
       </c>
       <c r="R11">
-        <v>2350.622048716557</v>
+        <v>3088.914714150573</v>
       </c>
       <c r="S11">
-        <v>0.05475577536406846</v>
+        <v>0.05598150729297185</v>
       </c>
       <c r="T11">
-        <v>0.05475577536406845</v>
+        <v>0.05598150729297185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.518638999999999</v>
+        <v>5.937871</v>
       </c>
       <c r="H12">
-        <v>13.555917</v>
+        <v>17.813613</v>
       </c>
       <c r="I12">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="J12">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N12">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q12">
-        <v>62.40527241955199</v>
+        <v>124.2737120554517</v>
       </c>
       <c r="R12">
-        <v>561.647451775968</v>
+        <v>1118.463408499065</v>
       </c>
       <c r="S12">
-        <v>0.01308310781822105</v>
+        <v>0.02027031279723458</v>
       </c>
       <c r="T12">
-        <v>0.01308310781822105</v>
+        <v>0.02027031279723458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.518638999999999</v>
+        <v>5.937871</v>
       </c>
       <c r="H13">
-        <v>13.555917</v>
+        <v>17.813613</v>
       </c>
       <c r="I13">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="J13">
-        <v>0.10903595219518</v>
+        <v>0.1306314820791405</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N13">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O13">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P13">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q13">
-        <v>54.41302909836</v>
+        <v>72.24762624133102</v>
       </c>
       <c r="R13">
-        <v>489.71726188524</v>
+        <v>650.228636171979</v>
       </c>
       <c r="S13">
-        <v>0.01140755418266234</v>
+        <v>0.01178432637560559</v>
       </c>
       <c r="T13">
-        <v>0.01140755418266234</v>
+        <v>0.01178432637560559</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.70542966666667</v>
+        <v>15.679466</v>
       </c>
       <c r="H14">
-        <v>41.11628899999999</v>
+        <v>47.038398</v>
       </c>
       <c r="I14">
-        <v>0.3307156367103166</v>
+        <v>0.3449438160225259</v>
       </c>
       <c r="J14">
-        <v>0.3307156367103166</v>
+        <v>0.344943816022526</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N14">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O14">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P14">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q14">
-        <v>430.9816722542489</v>
+        <v>689.5747874901233</v>
       </c>
       <c r="R14">
-        <v>3878.835050288239</v>
+        <v>6206.17308741111</v>
       </c>
       <c r="S14">
-        <v>0.09035421955810485</v>
+        <v>0.1124766968679132</v>
       </c>
       <c r="T14">
-        <v>0.09035421955810484</v>
+        <v>0.1124766968679132</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.70542966666667</v>
+        <v>15.679466</v>
       </c>
       <c r="H15">
-        <v>41.11628899999999</v>
+        <v>47.038398</v>
       </c>
       <c r="I15">
-        <v>0.3307156367103166</v>
+        <v>0.3449438160225259</v>
       </c>
       <c r="J15">
-        <v>0.3307156367103166</v>
+        <v>0.344943816022526</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N15">
         <v>173.401921</v>
       </c>
       <c r="O15">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P15">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q15">
-        <v>792.1826107767965</v>
+        <v>906.2831748847285</v>
       </c>
       <c r="R15">
-        <v>7129.643496991169</v>
+        <v>8156.548573962557</v>
       </c>
       <c r="S15">
-        <v>0.1660790844535356</v>
+        <v>0.1478240501063267</v>
       </c>
       <c r="T15">
-        <v>0.1660790844535356</v>
+        <v>0.1478240501063267</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.70542966666667</v>
+        <v>15.679466</v>
       </c>
       <c r="H16">
-        <v>41.11628899999999</v>
+        <v>47.038398</v>
       </c>
       <c r="I16">
-        <v>0.3307156367103166</v>
+        <v>0.3449438160225259</v>
       </c>
       <c r="J16">
-        <v>0.3307156367103166</v>
+        <v>0.344943816022526</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N16">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O16">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P16">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q16">
-        <v>189.2806820760284</v>
+        <v>328.1555700464434</v>
       </c>
       <c r="R16">
-        <v>1703.526138684256</v>
+        <v>2953.40013041799</v>
       </c>
       <c r="S16">
-        <v>0.03968221715079373</v>
+        <v>0.05352552797351181</v>
       </c>
       <c r="T16">
-        <v>0.03968221715079372</v>
+        <v>0.05352552797351181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.70542966666667</v>
+        <v>15.679466</v>
       </c>
       <c r="H17">
-        <v>41.11628899999999</v>
+        <v>47.038398</v>
       </c>
       <c r="I17">
-        <v>0.3307156367103166</v>
+        <v>0.3449438160225259</v>
       </c>
       <c r="J17">
-        <v>0.3307156367103166</v>
+        <v>0.344943816022526</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N17">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O17">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P17">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q17">
-        <v>165.0395048725644</v>
+        <v>190.776155162626</v>
       </c>
       <c r="R17">
-        <v>1485.35554385308</v>
+        <v>1716.985396463634</v>
       </c>
       <c r="S17">
-        <v>0.03460011554788243</v>
+        <v>0.03111754107477428</v>
       </c>
       <c r="T17">
-        <v>0.03460011554788242</v>
+        <v>0.03111754107477428</v>
       </c>
     </row>
   </sheetData>
